--- a/similarities/split_global/harmonic_similarity_timestamps_212.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_212.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,674 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000')]</t>
+          <t>('0:00:09.200000', '0:00:27.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Ab:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+          <t>('0:00:12.430000', '0:00:19.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+          <t>('0:00:29.740000', '0:00:51.180000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=29.74</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'G', 'C:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:22.981000', '0:00:29.373000')]</t>
+          <t>('0:00:12.140000', '0:00:23.020000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:48.600000', '0:00:53.940000')]</t>
+          <t>('0:00:11.440000', '0:00:17.640000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=22.981']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=48.6']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:17.046000', '0:00:28.197000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+          <t>('0:00:03.129454', '0:00:07.192947')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=17.046</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:55.640000', '0:01:02.520000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=55.64</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:05:02.760000', '0:05:04.820000')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:15.880000', '0:00:17.370000'), ('0:01:21.770000', '0:01:27.560000')]</t>
+          <t>('0:00:55.620000', '0:01:03.080000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=302.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=81.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>isophonics_77</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:16.630000', '0:01:27.460000')]</t>
+          <t>('0:00:21.840737', '0:00:25.474660')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
+          <t>('0:03:46.220000', '0:03:49.640000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-77#t=21.840737</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D', 'A', 'A:7/b7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:01:03.382018', '0:01:11.149092')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:00.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'A']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:23.795215', '0:00:29.925283')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:20.956000', '0:01:25.176000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=23.795215']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:57.777619', '0:01:01.864331')]</t>
+          <t>('0:00:53.060000', '0:01:05.640000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:00.360000', '0:00:03.020000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=53.06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.260000', '0:00:03.940000')]</t>
+          <t>('0:01:13.740000', '0:01:27.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.550000', '0:00:23.280000')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:maj', 'E:min', 'A:min']]</t>
+          <t>['F', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'G:min']]</t>
+          <t>['G:maj', 'C:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:38.795000', '0:00:44.251000')]</t>
+          <t>('0:00:27.910918', '0:00:40.797993')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:25.443832', '0:00:29.681473')]</t>
+          <t>('0:00:14.660000', '0:00:19')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=38.795']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=27.910918</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=25.443832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=14.66</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
